--- a/KIA_기록.xlsx
+++ b/KIA_기록.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="투수" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="포수" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="내야수" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="외야수" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="투수" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +428,2555 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>선수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>포지션</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>권혁경</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>박동원</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="E3" t="n">
+        <v>68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>254</v>
+      </c>
+      <c r="G3" t="n">
+        <v>218</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>92</v>
+      </c>
+      <c r="N3" t="n">
+        <v>30</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>53</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>한승택</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>57</v>
+      </c>
+      <c r="G4" t="n">
+        <v>47</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>15</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>이정훈</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>선수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>포지션</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>김선빈</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="E2" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2" t="n">
+        <v>338</v>
+      </c>
+      <c r="G2" t="n">
+        <v>284</v>
+      </c>
+      <c r="H2" t="n">
+        <v>36</v>
+      </c>
+      <c r="I2" t="n">
+        <v>81</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>101</v>
+      </c>
+      <c r="N2" t="n">
+        <v>27</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>42</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>29</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>박찬호</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>294</v>
+      </c>
+      <c r="G3" t="n">
+        <v>261</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>70</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>91</v>
+      </c>
+      <c r="N3" t="n">
+        <v>29</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>26</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>32</v>
+      </c>
+      <c r="U3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>류지혁</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="E4" t="n">
+        <v>68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>248</v>
+      </c>
+      <c r="G4" t="n">
+        <v>210</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" t="n">
+        <v>56</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>74</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>30</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>46</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>황대인</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="E5" t="n">
+        <v>78</v>
+      </c>
+      <c r="F5" t="n">
+        <v>319</v>
+      </c>
+      <c r="G5" t="n">
+        <v>287</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22</v>
+      </c>
+      <c r="I5" t="n">
+        <v>72</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>111</v>
+      </c>
+      <c r="N5" t="n">
+        <v>56</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>22</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>54</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>김도영</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="E6" t="n">
+        <v>65</v>
+      </c>
+      <c r="F6" t="n">
+        <v>171</v>
+      </c>
+      <c r="G6" t="n">
+        <v>155</v>
+      </c>
+      <c r="H6" t="n">
+        <v>27</v>
+      </c>
+      <c r="I6" t="n">
+        <v>34</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>51</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>12</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>41</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>김규성</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" t="n">
+        <v>29</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>임석진</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>박민</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>최정용</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>선수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>포지션</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>박정우</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>소크라테스</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="E3" t="n">
+        <v>76</v>
+      </c>
+      <c r="F3" t="n">
+        <v>328</v>
+      </c>
+      <c r="G3" t="n">
+        <v>304</v>
+      </c>
+      <c r="H3" t="n">
+        <v>54</v>
+      </c>
+      <c r="I3" t="n">
+        <v>101</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>166</v>
+      </c>
+      <c r="N3" t="n">
+        <v>46</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>21</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>52</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>나성범</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="E4" t="n">
+        <v>81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>366</v>
+      </c>
+      <c r="G4" t="n">
+        <v>307</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>93</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" t="n">
+        <v>155</v>
+      </c>
+      <c r="N4" t="n">
+        <v>54</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>43</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>12</v>
+      </c>
+      <c r="T4" t="n">
+        <v>77</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>이창진</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="E5" t="n">
+        <v>54</v>
+      </c>
+      <c r="F5" t="n">
+        <v>183</v>
+      </c>
+      <c r="G5" t="n">
+        <v>158</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>70</v>
+      </c>
+      <c r="N5" t="n">
+        <v>28</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>33</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>김호령</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>이우성</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="E7" t="n">
+        <v>46</v>
+      </c>
+      <c r="F7" t="n">
+        <v>98</v>
+      </c>
+      <c r="G7" t="n">
+        <v>83</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>34</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>17</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>고종욱</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G8" t="n">
+        <v>28</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>최형우</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="E9" t="n">
+        <v>76</v>
+      </c>
+      <c r="F9" t="n">
+        <v>304</v>
+      </c>
+      <c r="G9" t="n">
+        <v>252</v>
+      </c>
+      <c r="H9" t="n">
+        <v>29</v>
+      </c>
+      <c r="I9" t="n">
+        <v>55</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N9" t="n">
+        <v>34</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>50</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>56</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>김석환</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="E10" t="n">
+        <v>34</v>
+      </c>
+      <c r="F10" t="n">
+        <v>84</v>
+      </c>
+      <c r="G10" t="n">
+        <v>73</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>19</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>22</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>나지완</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>류승현</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -661,20 +3213,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -683,31 +3235,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7</v>
+        <v>0.636</v>
       </c>
       <c r="L2" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="S2" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="Y2" t="n">
-        <v>1474</v>
+        <v>1551</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.228</v>
+        <v>0.236</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>2</v>
@@ -740,19 +3292,19 @@
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>7</v>
@@ -773,13 +3325,13 @@
         <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AP2" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -798,17 +3350,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87 2/3</t>
+          <t>94 2/3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
@@ -820,31 +3372,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4</v>
+        <v>0.455</v>
       </c>
       <c r="L3" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" t="n">
         <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Q3" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R3" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -853,19 +3405,19 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="Y3" t="n">
-        <v>1469</v>
+        <v>1568</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.231</v>
+        <v>0.221</v>
       </c>
       <c r="AA3" t="n">
         <v>18</v>
@@ -889,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -910,13 +3462,13 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AP3" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -935,14 +3487,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62 1/3</t>
+          <t>67 1/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5.05</v>
+        <v>4.95</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -960,28 +3512,28 @@
         <v>0.5</v>
       </c>
       <c r="L4" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" t="n">
         <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q4" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -996,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="Y4" t="n">
-        <v>1053</v>
+        <v>1140</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.298</v>
+        <v>0.303</v>
       </c>
       <c r="AA4" t="n">
         <v>9</v>
@@ -1026,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
         <v>2</v>
@@ -1044,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AP4" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="5">
@@ -1072,14 +3624,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>69 2/3</t>
+          <t>74 2/3</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.88</v>
+        <v>4.1</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -1097,28 +3649,28 @@
         <v>0.25</v>
       </c>
       <c r="L5" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>9</v>
       </c>
       <c r="N5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q5" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R5" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S5" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1133,22 +3685,22 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="Y5" t="n">
-        <v>1094</v>
+        <v>1172</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.242</v>
+        <v>0.251</v>
       </c>
       <c r="AA5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
         <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD5" t="n">
         <v>3</v>
@@ -1163,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>2</v>
@@ -1181,16 +3733,16 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO5" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AP5" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
@@ -1483,14 +4035,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5 2/3</t>
+          <t>8 2/3</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.29</v>
+        <v>9.35</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1508,19 +4060,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="n">
         <v>9</v>
@@ -1529,7 +4081,7 @@
         <v>9</v>
       </c>
       <c r="S8" t="n">
-        <v>2.65</v>
+        <v>2.19</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1544,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Y8" t="n">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.393</v>
+        <v>0.368</v>
       </c>
       <c r="AA8" t="n">
         <v>2</v>
@@ -1592,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -1749,7 +4301,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>장재혁</t>
+          <t>김재열</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1759,94 +4311,92 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E10" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>24</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>12</v>
+      </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>96</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>363</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="AA10" t="n">
         <v>6</v>
       </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1858,28 +4408,28 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +4438,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>김현준</t>
+          <t>장재혁</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1898,20 +4448,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10 2/3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5.91</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1919,32 +4469,34 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L11" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>4</v>
       </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
       <c r="Q11" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1959,16 +4511,16 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.298</v>
+        <v>0.273</v>
       </c>
       <c r="AA11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1980,10 +4532,10 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1998,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
@@ -2010,13 +4562,13 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2299,7 +4851,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>김재열</t>
+          <t>김현준</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2309,53 +4861,53 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11 2/3</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>5.4</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Q14" t="n">
         <v>12</v>
       </c>
       <c r="R14" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2370,28 +4922,28 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="Y14" t="n">
-        <v>346</v>
+        <v>197</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.296</v>
+        <v>0.294</v>
       </c>
       <c r="AA14" t="n">
         <v>6</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2406,28 +4958,28 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>10</v>
       </c>
-      <c r="AL14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>16</v>
-      </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="15">
@@ -2436,7 +4988,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>장현식</t>
+          <t>김현수</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2446,53 +4998,55 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>35 2/3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.333</v>
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L15" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2504,67 +5058,67 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
-        <v>658</v>
+        <v>30</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.284</v>
+        <v>0.375</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="n">
         <v>3</v>
       </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>37</v>
-      </c>
       <c r="AP15" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.06</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2573,7 +5127,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>윤중현</t>
+          <t>김정빈</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2583,17 +5137,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.5</v>
+        <v>4.76</v>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2602,73 +5156,73 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>14</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>9</v>
+      </c>
+      <c r="R16" t="n">
+        <v>9</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>312</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="AA16" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>40</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="n">
-        <v>12</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>21</v>
-      </c>
-      <c r="R16" t="n">
-        <v>19</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>168</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>627</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>6</v>
-      </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -2680,10 +5234,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL16" t="n">
         <v>1</v>
@@ -2692,16 +5246,16 @@
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO16" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2710,7 +5264,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>김현수</t>
+          <t>윤중현</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2720,17 +5274,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>4.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2739,36 +5293,34 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
       </c>
       <c r="L17" t="n">
+        <v>40</v>
+      </c>
+      <c r="M17" t="n">
         <v>3</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2783,31 +5335,31 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="Y17" t="n">
-        <v>30</v>
+        <v>627</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.375</v>
+        <v>0.272</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2819,13 +5371,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -2834,13 +5386,13 @@
         <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="18">
@@ -2988,7 +5540,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>김정빈</t>
+          <t>장현식</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2998,53 +5550,53 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>36 2/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.94</v>
+        <v>4.17</v>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L19" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="R19" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="S19" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -3056,19 +5608,19 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X19" t="n">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="Y19" t="n">
-        <v>282</v>
+        <v>679</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.222</v>
+        <v>0.283</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AB19" t="n">
         <v>1</v>
@@ -3080,10 +5632,10 @@
         <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -3095,28 +5647,28 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AP19" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="20">
@@ -3135,14 +5687,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33 2/3</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.61</v>
+        <v>2.41</v>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -3151,7 +5703,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -3160,13 +5712,13 @@
         <v>0.4</v>
       </c>
       <c r="L20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -3181,7 +5733,7 @@
         <v>9</v>
       </c>
       <c r="S20" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -3196,13 +5748,13 @@
         <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="Y20" t="n">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.229</v>
+        <v>0.227</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -3211,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -3235,10 +5787,10 @@
         <v>2</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AM20" t="n">
         <v>3</v>
@@ -3247,13 +5799,13 @@
         <v>2</v>
       </c>
       <c r="AO20" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="21">
@@ -3272,14 +5824,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35 1/3</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>5</v>
@@ -3288,16 +5840,16 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K21" t="n">
         <v>0.556</v>
       </c>
       <c r="L21" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
@@ -3309,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -3318,7 +5870,7 @@
         <v>10</v>
       </c>
       <c r="S21" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -3333,13 +5885,13 @@
         <v>3</v>
       </c>
       <c r="X21" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Y21" t="n">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.235</v>
+        <v>0.234</v>
       </c>
       <c r="AA21" t="n">
         <v>7</v>
@@ -3372,25 +5924,25 @@
         <v>5</v>
       </c>
       <c r="AK21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="22">
@@ -3416,7 +5968,7 @@
         <v>2.37</v>
       </c>
       <c r="F22" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3434,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -3455,7 +6007,7 @@
         <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -3470,16 +6022,16 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y22" t="n">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.219</v>
+        <v>0.227</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -3521,13 +6073,13 @@
         <v>1</v>
       </c>
       <c r="AO22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP22" t="n">
         <v>18</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="23">
@@ -3546,55 +6098,53 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4 1/3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F23" t="n">
+        <v>8</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
         <v>7</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>6</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -3609,13 +6159,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.083</v>
+        <v>0.118</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -3645,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
@@ -3657,16 +6207,16 @@
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="24">
